--- a/M2/lab_1/inf/data.xlsx
+++ b/M2/lab_1/inf/data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Documents\repos\CyberPhysics\M2\lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Documents\CyberPhysics\M2\lab_1\inf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E267079-A735-4D5D-819B-EF5B6A7E583C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C5E68C-2C6A-46D7-8C1D-20CEDE41B94A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4875" xr2:uid="{FE73D4AD-E8DE-47F6-8F28-5E26ECCB7AF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4875" activeTab="2" xr2:uid="{FE73D4AD-E8DE-47F6-8F28-5E26ECCB7AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>Uб</t>
   </si>
@@ -47,12 +49,48 @@
   <si>
     <t>Ik</t>
   </si>
+  <si>
+    <t>Выходные ВАХ</t>
+  </si>
+  <si>
+    <t>Iб = 30мкА</t>
+  </si>
+  <si>
+    <t>Iб = 50мкА</t>
+  </si>
+  <si>
+    <t>Iб = 70мкА</t>
+  </si>
+  <si>
+    <t>Uк(В)</t>
+  </si>
+  <si>
+    <t>Iк(мА)1</t>
+  </si>
+  <si>
+    <t>Iк(мА)2</t>
+  </si>
+  <si>
+    <t>Iк(мА)3</t>
+  </si>
+  <si>
+    <t>входные ВАХ</t>
+  </si>
+  <si>
+    <t>Uб(В)</t>
+  </si>
+  <si>
+    <t>Iб(мкА)</t>
+  </si>
+  <si>
+    <t>Iк(мА)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +99,37 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -78,12 +137,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6727556F-62FC-45FD-A2DC-8CE34FE0EA84}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1280,4 +1410,1875 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC942D99-F902-4B00-89A0-D6728CD521B8}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8">
+        <v>-6.2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-1.6</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-5.75</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-0.6</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1124</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-4.55</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.378</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-4.24</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-3.94</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-2.48</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.39</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>-1.51</v>
+      </c>
+      <c r="J9" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3.76</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.26</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-0.84</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.32</v>
+      </c>
+      <c r="I11" s="8">
+        <v>-0.15</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-0.11</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="I13" s="8">
+        <v>-0.08</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9.23</v>
+      </c>
+      <c r="I14" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="I16" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="8">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="I17" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="8">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K19" s="8">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="K20" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K21" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="K22" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="J24" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="J25" s="8">
+        <v>156</v>
+      </c>
+      <c r="K25" s="8">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="J26" s="8">
+        <v>655</v>
+      </c>
+      <c r="K26" s="8">
+        <v>8420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4CE1D5-2FA6-45E5-888B-58824961EB79}">
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="N1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f>V3</f>
+        <v>-6.2</v>
+      </c>
+      <c r="I3">
+        <f>W3/1000000</f>
+        <v>-1.6000000000000001E-6</v>
+      </c>
+      <c r="J3">
+        <f>X3/1000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11">
+        <v>-6.2</v>
+      </c>
+      <c r="W3" s="11">
+        <v>-1.6</v>
+      </c>
+      <c r="X3" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>N4</f>
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <f>O4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>P4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <f>Q4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>R4</f>
+        <v>0.01</v>
+      </c>
+      <c r="F4">
+        <f>S4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H26" si="0">V4</f>
+        <v>-5.75</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I26" si="1">W4/1000000</f>
+        <v>-5.9999999999999997E-7</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J26" si="2">X4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11">
+        <v>-5.75</v>
+      </c>
+      <c r="W4" s="11">
+        <v>-0.6</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A18" si="3">N5</f>
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B19" si="4">O5/1000</f>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C19" si="5">P5</f>
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D19" si="6">Q5/1000</f>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E19" si="7">R5</f>
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F14" si="8">S5/1000</f>
+        <v>1.1239999999999999E-4</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>-4.55</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000003E-7</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.1124</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11">
+        <v>-4.55</v>
+      </c>
+      <c r="W5" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="4"/>
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="6"/>
+        <v>1.25E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="8"/>
+        <v>3.7800000000000003E-4</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>-4.24</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000003E-7</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.378</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11">
+        <v>-4.24</v>
+      </c>
+      <c r="W6" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0189999999999999E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="6"/>
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="8"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>-3.94</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000003E-7</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>6.15</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11">
+        <v>-3.94</v>
+      </c>
+      <c r="W7" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6899999999999999E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="6"/>
+        <v>6.7300000000000007E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="8"/>
+        <v>2.5499999999999997E-3</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>-2.48</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000002E-7</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>1E-4</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>6.73</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="11">
+        <v>-2.48</v>
+      </c>
+      <c r="W8" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="4"/>
+        <v>3.3900000000000002E-3</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="5"/>
+        <v>1.74</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="6"/>
+        <v>6.9299999999999995E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="7"/>
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="8"/>
+        <v>4.1600000000000005E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1.51</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000001E-7</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O9" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1.74</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>6.93</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="S9" s="11">
+        <v>4.16</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11">
+        <v>-1.51</v>
+      </c>
+      <c r="W9" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.69</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <f t="shared" si="7"/>
+        <v>0.17</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="8"/>
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.84</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000001E-7</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="O10" s="11">
+        <v>3.76</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="S10" s="11">
+        <v>6.26</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11">
+        <v>-0.84</v>
+      </c>
+      <c r="W10" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="4"/>
+        <v>3.8599999999999997E-3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="8"/>
+        <v>7.3200000000000001E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.15</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
+        <v>3.86</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="S11" s="11">
+        <v>7.32</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="4"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="8"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.11</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O12" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11">
+        <v>-0.11</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="4"/>
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <f t="shared" si="7"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="8"/>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.08</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3.95</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="S13" s="11">
+        <v>9.25</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11">
+        <v>-0.08</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="8"/>
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="O14" s="11">
+        <v>4</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="S14" s="11">
+        <v>9.23</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="X14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f t="shared" si="3"/>
+        <v>1.95</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0199999999999993E-3</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-7</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="O15" s="11">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11">
+        <v>-0.03</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="X15" s="11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f t="shared" si="3"/>
+        <v>2.23</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>2.23</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4.08</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="X16" s="11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <f t="shared" si="3"/>
+        <v>2.65</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="4"/>
+        <v>4.15E-3</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>2.65</v>
+      </c>
+      <c r="O17" s="11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="11">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="4"/>
+        <v>4.1900000000000001E-3</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000007E-7</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="11">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="W18" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="X18" s="11">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <f>N19</f>
+        <v>3.1</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="4"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001E-6</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="N19" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="W19" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X19" s="11">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="W20" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X20" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="W21" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X21" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000001E-6</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11">
+        <v>0.52</v>
+      </c>
+      <c r="W22" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="X22" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W23" s="11">
+        <v>5</v>
+      </c>
+      <c r="X23" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999998E-5</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="W24" s="11">
+        <v>21.4</v>
+      </c>
+      <c r="X24" s="11">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.56E-4</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9009999999999998</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="W25" s="11">
+        <v>156</v>
+      </c>
+      <c r="X25" s="11">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>6.5499999999999998E-4</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="2"/>
+        <v>8.42</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="W26" s="11">
+        <v>655</v>
+      </c>
+      <c r="X26" s="11">
+        <v>8420</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>